--- a/new purchase report from exist.xlsx
+++ b/new purchase report from exist.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,240 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Madeline Walker</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Adam Dang</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dylan Choi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leah Pena</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lucy Alexander</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>52</v>
+      </c>
+      <c r="F6" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John Chow</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>63</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>70</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anna Mehta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>74</v>
+      </c>
+      <c r="F8" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>80</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>John Soto</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>81</v>
+      </c>
+      <c r="F9" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>90</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gabriel Brooks</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>93</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
